--- a/src/main/java/com/test/automation/uiAutomation/data/TestData.xlsx
+++ b/src/main/java/com/test/automation/uiAutomation/data/TestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suyashnande/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suyashnande/Documents/workspace/uiAutomation/src/main/java/com/test/automation/uiAutomation/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
   <si>
     <t>userName</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t>y</t>
+  </si>
+  <si>
+    <t>n</t>
   </si>
 </sst>
 </file>
@@ -87,7 +90,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -142,37 +145,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -180,7 +152,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -188,9 +160,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -469,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -510,68 +479,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3:A8" r:id="rId2" display="ram1@gmail.com"/>
+    <hyperlink ref="A3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
